--- a/DOM_Banner/output/dept0713/Joshua Malo_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Joshua Malo_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Emergency Medicine, Department of Medicine, Division of Pulmonary, Allergy, Critical Care, and Sleep, University of Arizona College of Medicine Tucson, Banner University Medical Center Tucson, Tucson, USA; Department of Medicine, Division of Pulmonary, Allergy, Critical Care, and Sleep Medicine, University of Arizona College of Medicine Tucson, Banner University Medical Center Tucson Lung Transplant Program, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385384841</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Extracorporeal Membrane Oxygenation: Indications and Use</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Springer eBooks</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-030-86172-8_2-1</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-030-86172-8_2-1</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Pulmonary and Critical Care Medicine, University of Arizona, Tucson, AZ 85721, USA; Department of Infectious Disease, University of Arizona, Tucson, AZ 85721, USA; Department of Internal Medicine, University of Arizona, Tucson, AZ 85721, USA; Department of Radiology, University of Arizona, Tucson, AZ 85721, USA; Department of Radiology, University of Arizona, Tucson, AZ 85721, USA; Department of Biostatistics, Bio5 Institute, University of Arizona, Tucson, AZ 85721, USA; Department of Pulmonary and Critical Care Medicine, University of Arizona, Tucson, AZ 85721, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4390459182</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Examining Miliary Disease Etiology in a Coccidioides-Endemic Center: A Retrospective Cohort Study</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-12-31</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Fungi</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jof10010029</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/38248939</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jof10010029</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Joshua Malo_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Joshua Malo_2023.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Springer Nature</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
